--- a/data/data_parametros.xlsx
+++ b/data/data_parametros.xlsx
@@ -385,7 +385,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hombres-18-39</t>
+          <t>Hombres_18_39</t>
         </is>
       </c>
       <c r="C2">
@@ -403,7 +403,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hombres-40-59</t>
+          <t>Hombres_40_59</t>
         </is>
       </c>
       <c r="C3">
@@ -421,7 +421,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hombres-60+</t>
+          <t>Hombres_60_mas</t>
         </is>
       </c>
       <c r="C4">
@@ -439,7 +439,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mujeres-18-39</t>
+          <t>Mujeres_18_39</t>
         </is>
       </c>
       <c r="C5">
@@ -457,7 +457,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Mujeres-40-59</t>
+          <t>Mujeres_40_59</t>
         </is>
       </c>
       <c r="C6">
@@ -475,7 +475,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Mujeres-60+</t>
+          <t>Mujeres_60_mas</t>
         </is>
       </c>
       <c r="C7">
@@ -493,7 +493,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Hombres-18-39</t>
+          <t>Hombres_18_39</t>
         </is>
       </c>
       <c r="C8">
@@ -511,7 +511,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Hombres-40-59</t>
+          <t>Hombres_40_59</t>
         </is>
       </c>
       <c r="C9">
@@ -529,7 +529,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Hombres-60+</t>
+          <t>Hombres_60_mas</t>
         </is>
       </c>
       <c r="C10">
@@ -547,7 +547,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Mujeres-18-39</t>
+          <t>Mujeres_18_39</t>
         </is>
       </c>
       <c r="C11">
@@ -565,7 +565,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Mujeres-40-59</t>
+          <t>Mujeres_40_59</t>
         </is>
       </c>
       <c r="C12">
@@ -583,7 +583,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Mujeres-60+</t>
+          <t>Mujeres_60_mas</t>
         </is>
       </c>
       <c r="C13">
@@ -601,7 +601,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Hombres-18-39</t>
+          <t>Hombres_18_39</t>
         </is>
       </c>
       <c r="C14">
@@ -619,7 +619,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Hombres-40-59</t>
+          <t>Hombres_40_59</t>
         </is>
       </c>
       <c r="C15">
@@ -637,7 +637,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Hombres-60+</t>
+          <t>Hombres_60_mas</t>
         </is>
       </c>
       <c r="C16">
@@ -655,7 +655,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Mujeres-18-39</t>
+          <t>Mujeres_18_39</t>
         </is>
       </c>
       <c r="C17">
@@ -673,7 +673,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Mujeres-40-59</t>
+          <t>Mujeres_40_59</t>
         </is>
       </c>
       <c r="C18">
@@ -691,7 +691,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Mujeres-60+</t>
+          <t>Mujeres_60_mas</t>
         </is>
       </c>
       <c r="C19">
@@ -709,7 +709,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Hombres-18-39</t>
+          <t>Hombres_18_39</t>
         </is>
       </c>
       <c r="C20">
@@ -727,7 +727,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Hombres-40-59</t>
+          <t>Hombres_40_59</t>
         </is>
       </c>
       <c r="C21">
@@ -745,7 +745,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Hombres-60+</t>
+          <t>Hombres_60_mas</t>
         </is>
       </c>
       <c r="C22">
@@ -763,7 +763,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Mujeres-18-39</t>
+          <t>Mujeres_18_39</t>
         </is>
       </c>
       <c r="C23">
@@ -781,7 +781,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Mujeres-40-59</t>
+          <t>Mujeres_40_59</t>
         </is>
       </c>
       <c r="C24">
@@ -799,7 +799,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Mujeres-60+</t>
+          <t>Mujeres_60_mas</t>
         </is>
       </c>
       <c r="C25">
@@ -817,7 +817,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Hombres-18-39</t>
+          <t>Hombres_18_39</t>
         </is>
       </c>
       <c r="C26">
@@ -835,7 +835,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Hombres-40-59</t>
+          <t>Hombres_40_59</t>
         </is>
       </c>
       <c r="C27">
@@ -853,7 +853,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Hombres-60+</t>
+          <t>Hombres_60_mas</t>
         </is>
       </c>
       <c r="C28">
@@ -871,7 +871,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Mujeres-18-39</t>
+          <t>Mujeres_18_39</t>
         </is>
       </c>
       <c r="C29">
@@ -889,7 +889,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Mujeres-40-59</t>
+          <t>Mujeres_40_59</t>
         </is>
       </c>
       <c r="C30">
@@ -907,7 +907,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Mujeres-60+</t>
+          <t>Mujeres_60_mas</t>
         </is>
       </c>
       <c r="C31">
@@ -925,7 +925,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Hombres-18-39</t>
+          <t>Hombres_18_39</t>
         </is>
       </c>
       <c r="C32">
@@ -943,7 +943,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Hombres-40-59</t>
+          <t>Hombres_40_59</t>
         </is>
       </c>
       <c r="C33">
@@ -961,7 +961,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Hombres-60+</t>
+          <t>Hombres_60_mas</t>
         </is>
       </c>
       <c r="C34">
@@ -979,7 +979,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Mujeres-18-39</t>
+          <t>Mujeres_18_39</t>
         </is>
       </c>
       <c r="C35">
@@ -997,7 +997,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Mujeres-40-59</t>
+          <t>Mujeres_40_59</t>
         </is>
       </c>
       <c r="C36">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Mujeres-60+</t>
+          <t>Mujeres_60_mas</t>
         </is>
       </c>
       <c r="C37">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Hombres-18-39</t>
+          <t>Hombres_18_39</t>
         </is>
       </c>
       <c r="C38">
@@ -1051,7 +1051,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Hombres-40-59</t>
+          <t>Hombres_40_59</t>
         </is>
       </c>
       <c r="C39">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Hombres-60+</t>
+          <t>Hombres_60_mas</t>
         </is>
       </c>
       <c r="C40">
@@ -1087,7 +1087,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Mujeres-18-39</t>
+          <t>Mujeres_18_39</t>
         </is>
       </c>
       <c r="C41">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Mujeres-40-59</t>
+          <t>Mujeres_40_59</t>
         </is>
       </c>
       <c r="C42">
@@ -1123,7 +1123,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Mujeres-60+</t>
+          <t>Mujeres_60_mas</t>
         </is>
       </c>
       <c r="C43">
@@ -1141,7 +1141,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Hombres-18-39</t>
+          <t>Hombres_18_39</t>
         </is>
       </c>
       <c r="C44">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Hombres-40-59</t>
+          <t>Hombres_40_59</t>
         </is>
       </c>
       <c r="C45">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Hombres-60+</t>
+          <t>Hombres_60_mas</t>
         </is>
       </c>
       <c r="C46">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Mujeres-18-39</t>
+          <t>Mujeres_18_39</t>
         </is>
       </c>
       <c r="C47">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Mujeres-40-59</t>
+          <t>Mujeres_40_59</t>
         </is>
       </c>
       <c r="C48">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Mujeres-60+</t>
+          <t>Mujeres_60_mas</t>
         </is>
       </c>
       <c r="C49">
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Hombres-18-39</t>
+          <t>Hombres_18_39</t>
         </is>
       </c>
       <c r="C50">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Hombres-40-59</t>
+          <t>Hombres_40_59</t>
         </is>
       </c>
       <c r="C51">
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Hombres-60+</t>
+          <t>Hombres_60_mas</t>
         </is>
       </c>
       <c r="C52">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Mujeres-18-39</t>
+          <t>Mujeres_18_39</t>
         </is>
       </c>
       <c r="C53">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Mujeres-40-59</t>
+          <t>Mujeres_40_59</t>
         </is>
       </c>
       <c r="C54">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Mujeres-60+</t>
+          <t>Mujeres_60_mas</t>
         </is>
       </c>
       <c r="C55">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Hombres-18-39</t>
+          <t>Hombres_18_39</t>
         </is>
       </c>
       <c r="C56">
@@ -1375,7 +1375,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Hombres-40-59</t>
+          <t>Hombres_40_59</t>
         </is>
       </c>
       <c r="C57">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Hombres-60+</t>
+          <t>Hombres_60_mas</t>
         </is>
       </c>
       <c r="C58">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Mujeres-18-39</t>
+          <t>Mujeres_18_39</t>
         </is>
       </c>
       <c r="C59">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Mujeres-40-59</t>
+          <t>Mujeres_40_59</t>
         </is>
       </c>
       <c r="C60">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Mujeres-60+</t>
+          <t>Mujeres_60_mas</t>
         </is>
       </c>
       <c r="C61">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Hombres-18-39</t>
+          <t>Hombres_18_39</t>
         </is>
       </c>
       <c r="C62">
@@ -1483,7 +1483,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Hombres-40-59</t>
+          <t>Hombres_40_59</t>
         </is>
       </c>
       <c r="C63">
@@ -1501,7 +1501,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Hombres-60+</t>
+          <t>Hombres_60_mas</t>
         </is>
       </c>
       <c r="C64">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Mujeres-18-39</t>
+          <t>Mujeres_18_39</t>
         </is>
       </c>
       <c r="C65">
@@ -1537,7 +1537,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Mujeres-40-59</t>
+          <t>Mujeres_40_59</t>
         </is>
       </c>
       <c r="C66">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Mujeres-60+</t>
+          <t>Mujeres_60_mas</t>
         </is>
       </c>
       <c r="C67">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Hombres-18-39</t>
+          <t>Hombres_18_39</t>
         </is>
       </c>
       <c r="C68">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Hombres-40-59</t>
+          <t>Hombres_40_59</t>
         </is>
       </c>
       <c r="C69">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Hombres-60+</t>
+          <t>Hombres_60_mas</t>
         </is>
       </c>
       <c r="C70">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Mujeres-18-39</t>
+          <t>Mujeres_18_39</t>
         </is>
       </c>
       <c r="C71">
@@ -1645,7 +1645,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Mujeres-40-59</t>
+          <t>Mujeres_40_59</t>
         </is>
       </c>
       <c r="C72">
@@ -1663,7 +1663,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Mujeres-60+</t>
+          <t>Mujeres_60_mas</t>
         </is>
       </c>
       <c r="C73">
@@ -1681,7 +1681,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Hombres-18-39</t>
+          <t>Hombres_18_39</t>
         </is>
       </c>
       <c r="C74">
@@ -1699,7 +1699,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Hombres-40-59</t>
+          <t>Hombres_40_59</t>
         </is>
       </c>
       <c r="C75">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Hombres-60+</t>
+          <t>Hombres_60_mas</t>
         </is>
       </c>
       <c r="C76">
@@ -1735,7 +1735,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Mujeres-18-39</t>
+          <t>Mujeres_18_39</t>
         </is>
       </c>
       <c r="C77">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Mujeres-40-59</t>
+          <t>Mujeres_40_59</t>
         </is>
       </c>
       <c r="C78">
@@ -1771,7 +1771,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Mujeres-60+</t>
+          <t>Mujeres_60_mas</t>
         </is>
       </c>
       <c r="C79">
@@ -1789,7 +1789,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Hombres-18-39</t>
+          <t>Hombres_18_39</t>
         </is>
       </c>
       <c r="C80">
@@ -1807,7 +1807,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Hombres-40-59</t>
+          <t>Hombres_40_59</t>
         </is>
       </c>
       <c r="C81">
@@ -1825,7 +1825,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Hombres-60+</t>
+          <t>Hombres_60_mas</t>
         </is>
       </c>
       <c r="C82">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Mujeres-18-39</t>
+          <t>Mujeres_18_39</t>
         </is>
       </c>
       <c r="C83">
@@ -1861,7 +1861,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Mujeres-40-59</t>
+          <t>Mujeres_40_59</t>
         </is>
       </c>
       <c r="C84">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Mujeres-60+</t>
+          <t>Mujeres_60_mas</t>
         </is>
       </c>
       <c r="C85">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Hombres-18-39</t>
+          <t>Hombres_18_39</t>
         </is>
       </c>
       <c r="C86">
@@ -1915,7 +1915,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Hombres-40-59</t>
+          <t>Hombres_40_59</t>
         </is>
       </c>
       <c r="C87">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Hombres-60+</t>
+          <t>Hombres_60_mas</t>
         </is>
       </c>
       <c r="C88">
@@ -1951,7 +1951,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Mujeres-18-39</t>
+          <t>Mujeres_18_39</t>
         </is>
       </c>
       <c r="C89">
@@ -1969,7 +1969,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Mujeres-40-59</t>
+          <t>Mujeres_40_59</t>
         </is>
       </c>
       <c r="C90">
@@ -1987,7 +1987,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Mujeres-60+</t>
+          <t>Mujeres_60_mas</t>
         </is>
       </c>
       <c r="C91">
@@ -2005,7 +2005,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Hombres-18-39</t>
+          <t>Hombres_18_39</t>
         </is>
       </c>
       <c r="C92">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Hombres-40-59</t>
+          <t>Hombres_40_59</t>
         </is>
       </c>
       <c r="C93">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Hombres-60+</t>
+          <t>Hombres_60_mas</t>
         </is>
       </c>
       <c r="C94">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Mujeres-18-39</t>
+          <t>Mujeres_18_39</t>
         </is>
       </c>
       <c r="C95">
@@ -2077,7 +2077,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Mujeres-40-59</t>
+          <t>Mujeres_40_59</t>
         </is>
       </c>
       <c r="C96">
@@ -2095,7 +2095,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Mujeres-60+</t>
+          <t>Mujeres_60_mas</t>
         </is>
       </c>
       <c r="C97">
@@ -2113,7 +2113,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Hombres-18-39</t>
+          <t>Hombres_18_39</t>
         </is>
       </c>
       <c r="C98">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Hombres-40-59</t>
+          <t>Hombres_40_59</t>
         </is>
       </c>
       <c r="C99">
@@ -2149,7 +2149,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Hombres-60+</t>
+          <t>Hombres_60_mas</t>
         </is>
       </c>
       <c r="C100">
@@ -2167,7 +2167,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Mujeres-18-39</t>
+          <t>Mujeres_18_39</t>
         </is>
       </c>
       <c r="C101">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Mujeres-40-59</t>
+          <t>Mujeres_40_59</t>
         </is>
       </c>
       <c r="C102">
@@ -2203,7 +2203,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Mujeres-60+</t>
+          <t>Mujeres_60_mas</t>
         </is>
       </c>
       <c r="C103">
@@ -2221,7 +2221,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Hombres-18-39</t>
+          <t>Hombres_18_39</t>
         </is>
       </c>
       <c r="C104">
@@ -2239,7 +2239,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Hombres-40-59</t>
+          <t>Hombres_40_59</t>
         </is>
       </c>
       <c r="C105">
@@ -2257,7 +2257,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Hombres-60+</t>
+          <t>Hombres_60_mas</t>
         </is>
       </c>
       <c r="C106">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Mujeres-18-39</t>
+          <t>Mujeres_18_39</t>
         </is>
       </c>
       <c r="C107">
@@ -2293,7 +2293,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Mujeres-40-59</t>
+          <t>Mujeres_40_59</t>
         </is>
       </c>
       <c r="C108">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Mujeres-60+</t>
+          <t>Mujeres_60_mas</t>
         </is>
       </c>
       <c r="C109">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Hombres-18-39</t>
+          <t>Hombres_18_39</t>
         </is>
       </c>
       <c r="C110">
@@ -2347,7 +2347,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Hombres-40-59</t>
+          <t>Hombres_40_59</t>
         </is>
       </c>
       <c r="C111">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Hombres-60+</t>
+          <t>Hombres_60_mas</t>
         </is>
       </c>
       <c r="C112">
@@ -2383,7 +2383,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Mujeres-18-39</t>
+          <t>Mujeres_18_39</t>
         </is>
       </c>
       <c r="C113">
@@ -2401,7 +2401,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Mujeres-40-59</t>
+          <t>Mujeres_40_59</t>
         </is>
       </c>
       <c r="C114">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Mujeres-60+</t>
+          <t>Mujeres_60_mas</t>
         </is>
       </c>
       <c r="C115">
@@ -2437,7 +2437,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Hombres-18-39</t>
+          <t>Hombres_18_39</t>
         </is>
       </c>
       <c r="C116">
@@ -2455,7 +2455,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Hombres-40-59</t>
+          <t>Hombres_40_59</t>
         </is>
       </c>
       <c r="C117">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Hombres-60+</t>
+          <t>Hombres_60_mas</t>
         </is>
       </c>
       <c r="C118">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Mujeres-18-39</t>
+          <t>Mujeres_18_39</t>
         </is>
       </c>
       <c r="C119">
@@ -2509,7 +2509,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Mujeres-40-59</t>
+          <t>Mujeres_40_59</t>
         </is>
       </c>
       <c r="C120">
@@ -2527,7 +2527,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Mujeres-60+</t>
+          <t>Mujeres_60_mas</t>
         </is>
       </c>
       <c r="C121">
@@ -2545,7 +2545,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Hombres-18-39</t>
+          <t>Hombres_18_39</t>
         </is>
       </c>
       <c r="C122">
@@ -2563,7 +2563,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Hombres-40-59</t>
+          <t>Hombres_40_59</t>
         </is>
       </c>
       <c r="C123">
@@ -2581,7 +2581,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Hombres-60+</t>
+          <t>Hombres_60_mas</t>
         </is>
       </c>
       <c r="C124">
@@ -2599,7 +2599,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Mujeres-18-39</t>
+          <t>Mujeres_18_39</t>
         </is>
       </c>
       <c r="C125">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Mujeres-40-59</t>
+          <t>Mujeres_40_59</t>
         </is>
       </c>
       <c r="C126">
@@ -2635,7 +2635,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Mujeres-60+</t>
+          <t>Mujeres_60_mas</t>
         </is>
       </c>
       <c r="C127">
@@ -2653,7 +2653,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Hombres-18-39</t>
+          <t>Hombres_18_39</t>
         </is>
       </c>
       <c r="C128">
@@ -2671,7 +2671,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Hombres-40-59</t>
+          <t>Hombres_40_59</t>
         </is>
       </c>
       <c r="C129">
@@ -2689,7 +2689,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Hombres-60+</t>
+          <t>Hombres_60_mas</t>
         </is>
       </c>
       <c r="C130">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Mujeres-18-39</t>
+          <t>Mujeres_18_39</t>
         </is>
       </c>
       <c r="C131">
@@ -2725,7 +2725,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Mujeres-40-59</t>
+          <t>Mujeres_40_59</t>
         </is>
       </c>
       <c r="C132">
@@ -2743,7 +2743,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Mujeres-60+</t>
+          <t>Mujeres_60_mas</t>
         </is>
       </c>
       <c r="C133">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Hombres-18-39</t>
+          <t>Hombres_18_39</t>
         </is>
       </c>
       <c r="C134">
@@ -2779,7 +2779,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Hombres-40-59</t>
+          <t>Hombres_40_59</t>
         </is>
       </c>
       <c r="C135">
@@ -2797,7 +2797,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Hombres-60+</t>
+          <t>Hombres_60_mas</t>
         </is>
       </c>
       <c r="C136">
@@ -2815,7 +2815,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Mujeres-18-39</t>
+          <t>Mujeres_18_39</t>
         </is>
       </c>
       <c r="C137">
@@ -2833,7 +2833,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Mujeres-40-59</t>
+          <t>Mujeres_40_59</t>
         </is>
       </c>
       <c r="C138">
@@ -2851,7 +2851,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Mujeres-60+</t>
+          <t>Mujeres_60_mas</t>
         </is>
       </c>
       <c r="C139">
@@ -2869,7 +2869,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Hombres-18-39</t>
+          <t>Hombres_18_39</t>
         </is>
       </c>
       <c r="C140">
@@ -2887,7 +2887,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Hombres-40-59</t>
+          <t>Hombres_40_59</t>
         </is>
       </c>
       <c r="C141">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Hombres-60+</t>
+          <t>Hombres_60_mas</t>
         </is>
       </c>
       <c r="C142">
@@ -2923,7 +2923,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Mujeres-18-39</t>
+          <t>Mujeres_18_39</t>
         </is>
       </c>
       <c r="C143">
@@ -2941,7 +2941,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Mujeres-40-59</t>
+          <t>Mujeres_40_59</t>
         </is>
       </c>
       <c r="C144">
@@ -2959,7 +2959,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Mujeres-60+</t>
+          <t>Mujeres_60_mas</t>
         </is>
       </c>
       <c r="C145">
@@ -2977,7 +2977,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Hombres-18-39</t>
+          <t>Hombres_18_39</t>
         </is>
       </c>
       <c r="C146">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Hombres-40-59</t>
+          <t>Hombres_40_59</t>
         </is>
       </c>
       <c r="C147">
@@ -3013,7 +3013,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Hombres-60+</t>
+          <t>Hombres_60_mas</t>
         </is>
       </c>
       <c r="C148">
@@ -3031,7 +3031,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Mujeres-18-39</t>
+          <t>Mujeres_18_39</t>
         </is>
       </c>
       <c r="C149">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Mujeres-40-59</t>
+          <t>Mujeres_40_59</t>
         </is>
       </c>
       <c r="C150">
@@ -3067,7 +3067,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Mujeres-60+</t>
+          <t>Mujeres_60_mas</t>
         </is>
       </c>
       <c r="C151">

--- a/data/data_parametros.xlsx
+++ b/data/data_parametros.xlsx
@@ -13507,7 +13507,7 @@
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>OP-BN</t>
+          <t>OPBN</t>
         </is>
       </c>
       <c r="C731">
@@ -13579,7 +13579,7 @@
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>OP-BN</t>
+          <t>OPBN</t>
         </is>
       </c>
       <c r="C735">
@@ -13651,7 +13651,7 @@
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>OP-BN</t>
+          <t>OPBN</t>
         </is>
       </c>
       <c r="C739">
@@ -13723,7 +13723,7 @@
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>OP-BN</t>
+          <t>OPBN</t>
         </is>
       </c>
       <c r="C743">
@@ -13795,7 +13795,7 @@
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>OP-BN</t>
+          <t>OPBN</t>
         </is>
       </c>
       <c r="C747">
@@ -13867,7 +13867,7 @@
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>OP-BN</t>
+          <t>OPBN</t>
         </is>
       </c>
       <c r="C751">
@@ -13957,7 +13957,7 @@
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>OP-BN</t>
+          <t>OPBN</t>
         </is>
       </c>
       <c r="C756">

--- a/data/data_parametros.xlsx
+++ b/data/data_parametros.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D756"/>
+  <dimension ref="A1:D737"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3089,7 +3089,7 @@
         </is>
       </c>
       <c r="C152">
-        <v>0.424</v>
+        <v>0.442</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="C153">
-        <v>0.024</v>
+        <v>0.021</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -3125,7 +3125,7 @@
         </is>
       </c>
       <c r="C154">
-        <v>0.141</v>
+        <v>0.139</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         </is>
       </c>
       <c r="C155">
-        <v>0.026</v>
+        <v>0.025</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         </is>
       </c>
       <c r="C157">
-        <v>0.018</v>
+        <v>0.017</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         </is>
       </c>
       <c r="C161">
-        <v>0.041</v>
+        <v>0.04</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -3269,7 +3269,7 @@
         </is>
       </c>
       <c r="C162">
-        <v>0.035</v>
+        <v>0.033</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="C163">
-        <v>0.016</v>
+        <v>0.015</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         </is>
       </c>
       <c r="C164">
-        <v>0.031</v>
+        <v>0.029</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -3341,7 +3341,7 @@
         </is>
       </c>
       <c r="C166">
-        <v>0.037</v>
+        <v>0.034</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         </is>
       </c>
       <c r="C167">
-        <v>0.031</v>
+        <v>0.03</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         </is>
       </c>
       <c r="C168">
-        <v>0.026</v>
+        <v>0.025</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         </is>
       </c>
       <c r="C169">
-        <v>0.027</v>
+        <v>0.025</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -3413,7 +3413,7 @@
         </is>
       </c>
       <c r="C170">
-        <v>0.016</v>
+        <v>0.015</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         </is>
       </c>
       <c r="C171">
-        <v>0.423</v>
+        <v>0.44</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         </is>
       </c>
       <c r="C172">
-        <v>0.024</v>
+        <v>0.021</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         </is>
       </c>
       <c r="C173">
-        <v>0.142</v>
+        <v>0.141</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         </is>
       </c>
       <c r="C174">
-        <v>0.026</v>
+        <v>0.025</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="C176">
-        <v>0.018</v>
+        <v>0.017</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -3611,7 +3611,7 @@
         </is>
       </c>
       <c r="C181">
-        <v>0.035</v>
+        <v>0.033</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -3629,7 +3629,7 @@
         </is>
       </c>
       <c r="C182">
-        <v>0.016</v>
+        <v>0.015</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         </is>
       </c>
       <c r="C183">
-        <v>0.031</v>
+        <v>0.029</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -3683,7 +3683,7 @@
         </is>
       </c>
       <c r="C185">
-        <v>0.037</v>
+        <v>0.034</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         </is>
       </c>
       <c r="C187">
-        <v>0.026</v>
+        <v>0.025</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="C188">
-        <v>0.027</v>
+        <v>0.025</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         </is>
       </c>
       <c r="C190">
-        <v>0.421</v>
+        <v>0.438</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         </is>
       </c>
       <c r="C191">
-        <v>0.024</v>
+        <v>0.021</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         </is>
       </c>
       <c r="C192">
-        <v>0.144</v>
+        <v>0.142</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         </is>
       </c>
       <c r="C193">
-        <v>0.026</v>
+        <v>0.025</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -3863,7 +3863,7 @@
         </is>
       </c>
       <c r="C195">
-        <v>0.018</v>
+        <v>0.017</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         </is>
       </c>
       <c r="C199">
-        <v>0.042</v>
+        <v>0.041</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -3953,7 +3953,7 @@
         </is>
       </c>
       <c r="C200">
-        <v>0.035</v>
+        <v>0.033</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="C201">
-        <v>0.016</v>
+        <v>0.015</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         </is>
       </c>
       <c r="C202">
-        <v>0.031</v>
+        <v>0.029</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -4025,7 +4025,7 @@
         </is>
       </c>
       <c r="C204">
-        <v>0.037</v>
+        <v>0.035</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         </is>
       </c>
       <c r="C206">
-        <v>0.026</v>
+        <v>0.025</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -4079,7 +4079,7 @@
         </is>
       </c>
       <c r="C207">
-        <v>0.027</v>
+        <v>0.025</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         </is>
       </c>
       <c r="C209">
-        <v>0.419</v>
+        <v>0.436</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
         </is>
       </c>
       <c r="C210">
-        <v>0.024</v>
+        <v>0.021</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         </is>
       </c>
       <c r="C211">
-        <v>0.145</v>
+        <v>0.143</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -4169,7 +4169,7 @@
         </is>
       </c>
       <c r="C212">
-        <v>0.026</v>
+        <v>0.025</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -4205,7 +4205,7 @@
         </is>
       </c>
       <c r="C214">
-        <v>0.018</v>
+        <v>0.017</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         </is>
       </c>
       <c r="C218">
-        <v>0.042</v>
+        <v>0.041</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -4295,7 +4295,7 @@
         </is>
       </c>
       <c r="C219">
-        <v>0.035</v>
+        <v>0.033</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -4313,7 +4313,7 @@
         </is>
       </c>
       <c r="C220">
-        <v>0.016</v>
+        <v>0.015</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         </is>
       </c>
       <c r="C221">
-        <v>0.032</v>
+        <v>0.03</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -4367,7 +4367,7 @@
         </is>
       </c>
       <c r="C223">
-        <v>0.037</v>
+        <v>0.035</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         </is>
       </c>
       <c r="C225">
-        <v>0.026</v>
+        <v>0.025</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="C226">
-        <v>0.027</v>
+        <v>0.025</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         </is>
       </c>
       <c r="C228">
-        <v>0.417</v>
+        <v>0.434</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         </is>
       </c>
       <c r="C229">
-        <v>0.024</v>
+        <v>0.022</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         </is>
       </c>
       <c r="C230">
-        <v>0.146</v>
+        <v>0.145</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         </is>
       </c>
       <c r="C231">
-        <v>0.026</v>
+        <v>0.025</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -4529,7 +4529,7 @@
         </is>
       </c>
       <c r="C232">
-        <v>0.037</v>
+        <v>0.038</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         </is>
       </c>
       <c r="C233">
-        <v>0.018</v>
+        <v>0.017</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         </is>
       </c>
       <c r="C237">
-        <v>0.043</v>
+        <v>0.042</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -4637,7 +4637,7 @@
         </is>
       </c>
       <c r="C238">
-        <v>0.035</v>
+        <v>0.033</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -4673,7 +4673,7 @@
         </is>
       </c>
       <c r="C240">
-        <v>0.032</v>
+        <v>0.03</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -4709,7 +4709,7 @@
         </is>
       </c>
       <c r="C242">
-        <v>0.038</v>
+        <v>0.035</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         </is>
       </c>
       <c r="C244">
-        <v>0.026</v>
+        <v>0.025</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -4763,7 +4763,7 @@
         </is>
       </c>
       <c r="C245">
-        <v>0.027</v>
+        <v>0.026</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         </is>
       </c>
       <c r="C247">
-        <v>0.415</v>
+        <v>0.432</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         </is>
       </c>
       <c r="C248">
-        <v>0.024</v>
+        <v>0.022</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         </is>
       </c>
       <c r="C249">
-        <v>0.147</v>
+        <v>0.146</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         </is>
       </c>
       <c r="C250">
-        <v>0.026</v>
+        <v>0.025</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="C251">
-        <v>0.037</v>
+        <v>0.038</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         </is>
       </c>
       <c r="C252">
-        <v>0.018</v>
+        <v>0.017</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         </is>
       </c>
       <c r="C256">
-        <v>0.043</v>
+        <v>0.042</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -4979,7 +4979,7 @@
         </is>
       </c>
       <c r="C257">
-        <v>0.035</v>
+        <v>0.033</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="C259">
-        <v>0.032</v>
+        <v>0.03</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         </is>
       </c>
       <c r="C261">
-        <v>0.038</v>
+        <v>0.035</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         </is>
       </c>
       <c r="C263">
-        <v>0.026</v>
+        <v>0.025</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         </is>
       </c>
       <c r="C264">
-        <v>0.027</v>
+        <v>0.026</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         </is>
       </c>
       <c r="C266">
-        <v>0.413</v>
+        <v>0.43</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         </is>
       </c>
       <c r="C267">
-        <v>0.024</v>
+        <v>0.022</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         </is>
       </c>
       <c r="C268">
-        <v>0.148</v>
+        <v>0.146</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -5195,7 +5195,7 @@
         </is>
       </c>
       <c r="C269">
-        <v>0.026</v>
+        <v>0.025</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         </is>
       </c>
       <c r="C270">
-        <v>0.037</v>
+        <v>0.038</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -5231,7 +5231,7 @@
         </is>
       </c>
       <c r="C271">
-        <v>0.018</v>
+        <v>0.017</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         </is>
       </c>
       <c r="C275">
-        <v>0.043</v>
+        <v>0.042</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="C276">
-        <v>0.035</v>
+        <v>0.033</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         </is>
       </c>
       <c r="C277">
-        <v>0.017</v>
+        <v>0.016</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
         </is>
       </c>
       <c r="C278">
-        <v>0.032</v>
+        <v>0.03</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -5393,7 +5393,7 @@
         </is>
       </c>
       <c r="C280">
-        <v>0.038</v>
+        <v>0.035</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         </is>
       </c>
       <c r="C282">
-        <v>0.026</v>
+        <v>0.025</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="C283">
-        <v>0.028</v>
+        <v>0.026</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         </is>
       </c>
       <c r="C285">
-        <v>0.41</v>
+        <v>0.427</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         </is>
       </c>
       <c r="C286">
-        <v>0.024</v>
+        <v>0.022</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         </is>
       </c>
       <c r="C287">
-        <v>0.149</v>
+        <v>0.147</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -5537,7 +5537,7 @@
         </is>
       </c>
       <c r="C288">
-        <v>0.027</v>
+        <v>0.025</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -5573,7 +5573,7 @@
         </is>
       </c>
       <c r="C290">
-        <v>0.018</v>
+        <v>0.017</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         </is>
       </c>
       <c r="C294">
-        <v>0.043</v>
+        <v>0.042</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -5663,7 +5663,7 @@
         </is>
       </c>
       <c r="C295">
-        <v>0.035</v>
+        <v>0.033</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         </is>
       </c>
       <c r="C296">
-        <v>0.017</v>
+        <v>0.016</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -5699,7 +5699,7 @@
         </is>
       </c>
       <c r="C297">
-        <v>0.032</v>
+        <v>0.03</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         </is>
       </c>
       <c r="C298">
-        <v>0.022</v>
+        <v>0.021</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         </is>
       </c>
       <c r="C299">
-        <v>0.038</v>
+        <v>0.035</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="C301">
-        <v>0.026</v>
+        <v>0.025</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         </is>
       </c>
       <c r="C302">
-        <v>0.028</v>
+        <v>0.026</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -5825,7 +5825,7 @@
         </is>
       </c>
       <c r="C304">
-        <v>0.409</v>
+        <v>0.425</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         </is>
       </c>
       <c r="C305">
-        <v>0.024</v>
+        <v>0.022</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -5861,7 +5861,7 @@
         </is>
       </c>
       <c r="C306">
-        <v>0.15</v>
+        <v>0.148</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         </is>
       </c>
       <c r="C307">
-        <v>0.027</v>
+        <v>0.025</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -5915,7 +5915,7 @@
         </is>
       </c>
       <c r="C309">
-        <v>0.018</v>
+        <v>0.017</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -5987,7 +5987,7 @@
         </is>
       </c>
       <c r="C313">
-        <v>0.044</v>
+        <v>0.043</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         </is>
       </c>
       <c r="C314">
-        <v>0.035</v>
+        <v>0.033</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         </is>
       </c>
       <c r="C315">
-        <v>0.017</v>
+        <v>0.016</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -6041,7 +6041,7 @@
         </is>
       </c>
       <c r="C316">
-        <v>0.032</v>
+        <v>0.03</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         </is>
       </c>
       <c r="C317">
-        <v>0.022</v>
+        <v>0.021</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -6077,7 +6077,7 @@
         </is>
       </c>
       <c r="C318">
-        <v>0.038</v>
+        <v>0.035</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         </is>
       </c>
       <c r="C320">
-        <v>0.026</v>
+        <v>0.025</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -6131,7 +6131,7 @@
         </is>
       </c>
       <c r="C321">
-        <v>0.028</v>
+        <v>0.027</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="C323">
-        <v>0.408</v>
+        <v>0.424</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         </is>
       </c>
       <c r="C324">
-        <v>0.024</v>
+        <v>0.022</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -6203,7 +6203,7 @@
         </is>
       </c>
       <c r="C325">
-        <v>0.152</v>
+        <v>0.149</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="C326">
-        <v>0.027</v>
+        <v>0.025</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -6257,7 +6257,7 @@
         </is>
       </c>
       <c r="C328">
-        <v>0.018</v>
+        <v>0.017</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         </is>
       </c>
       <c r="C332">
-        <v>0.045</v>
+        <v>0.044</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         </is>
       </c>
       <c r="C333">
-        <v>0.035</v>
+        <v>0.033</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
         </is>
       </c>
       <c r="C334">
-        <v>0.017</v>
+        <v>0.016</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -6383,7 +6383,7 @@
         </is>
       </c>
       <c r="C335">
-        <v>0.032</v>
+        <v>0.03</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         </is>
       </c>
       <c r="C336">
-        <v>0.022</v>
+        <v>0.021</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -6419,7 +6419,7 @@
         </is>
       </c>
       <c r="C337">
-        <v>0.038</v>
+        <v>0.035</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         </is>
       </c>
       <c r="C339">
-        <v>0.026</v>
+        <v>0.025</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -6473,7 +6473,7 @@
         </is>
       </c>
       <c r="C340">
-        <v>0.028</v>
+        <v>0.026</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -6509,7 +6509,7 @@
         </is>
       </c>
       <c r="C342">
-        <v>0.407</v>
+        <v>0.423</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
         </is>
       </c>
       <c r="C343">
-        <v>0.023</v>
+        <v>0.022</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -6545,7 +6545,7 @@
         </is>
       </c>
       <c r="C344">
-        <v>0.153</v>
+        <v>0.15</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -6563,7 +6563,7 @@
         </is>
       </c>
       <c r="C345">
-        <v>0.027</v>
+        <v>0.025</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -6599,7 +6599,7 @@
         </is>
       </c>
       <c r="C347">
-        <v>0.018</v>
+        <v>0.017</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         </is>
       </c>
       <c r="C350">
-        <v>0.018</v>
+        <v>0.019</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="C351">
-        <v>0.046</v>
+        <v>0.045</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         </is>
       </c>
       <c r="C352">
-        <v>0.035</v>
+        <v>0.033</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         </is>
       </c>
       <c r="C353">
-        <v>0.017</v>
+        <v>0.016</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -6725,7 +6725,7 @@
         </is>
       </c>
       <c r="C354">
-        <v>0.032</v>
+        <v>0.03</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         </is>
       </c>
       <c r="C355">
-        <v>0.022</v>
+        <v>0.021</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         </is>
       </c>
       <c r="C356">
-        <v>0.038</v>
+        <v>0.035</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         </is>
       </c>
       <c r="C358">
-        <v>0.026</v>
+        <v>0.025</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         </is>
       </c>
       <c r="C359">
-        <v>0.028</v>
+        <v>0.026</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -6851,7 +6851,7 @@
         </is>
       </c>
       <c r="C361">
-        <v>0.406</v>
+        <v>0.422</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         </is>
       </c>
       <c r="C362">
-        <v>0.023</v>
+        <v>0.022</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="C363">
-        <v>0.154</v>
+        <v>0.151</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         </is>
       </c>
       <c r="C364">
-        <v>0.026</v>
+        <v>0.025</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -6941,7 +6941,7 @@
         </is>
       </c>
       <c r="C366">
-        <v>0.018</v>
+        <v>0.017</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -7013,7 +7013,7 @@
         </is>
       </c>
       <c r="C370">
-        <v>0.047</v>
+        <v>0.046</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -7031,7 +7031,7 @@
         </is>
       </c>
       <c r="C371">
-        <v>0.035</v>
+        <v>0.033</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -7049,7 +7049,7 @@
         </is>
       </c>
       <c r="C372">
-        <v>0.017</v>
+        <v>0.016</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -7067,7 +7067,7 @@
         </is>
       </c>
       <c r="C373">
-        <v>0.032</v>
+        <v>0.03</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         </is>
       </c>
       <c r="C374">
-        <v>0.022</v>
+        <v>0.021</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         </is>
       </c>
       <c r="C375">
-        <v>0.038</v>
+        <v>0.036</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -7139,7 +7139,7 @@
         </is>
       </c>
       <c r="C377">
-        <v>0.026</v>
+        <v>0.025</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         </is>
       </c>
       <c r="C378">
-        <v>0.028</v>
+        <v>0.026</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -7193,7 +7193,7 @@
         </is>
       </c>
       <c r="C380">
-        <v>0.405</v>
+        <v>0.42</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         </is>
       </c>
       <c r="C381">
-        <v>0.023</v>
+        <v>0.021</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
         </is>
       </c>
       <c r="C382">
-        <v>0.155</v>
+        <v>0.152</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -7247,7 +7247,7 @@
         </is>
       </c>
       <c r="C383">
-        <v>0.026</v>
+        <v>0.025</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -7283,7 +7283,7 @@
         </is>
       </c>
       <c r="C385">
-        <v>0.018</v>
+        <v>0.017</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -7319,7 +7319,7 @@
         </is>
       </c>
       <c r="C387">
-        <v>0.021</v>
+        <v>0.02</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -7355,7 +7355,7 @@
         </is>
       </c>
       <c r="C389">
-        <v>0.048</v>
+        <v>0.047</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         </is>
       </c>
       <c r="C390">
-        <v>0.035</v>
+        <v>0.033</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -7391,7 +7391,7 @@
         </is>
       </c>
       <c r="C391">
-        <v>0.017</v>
+        <v>0.016</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -7409,7 +7409,7 @@
         </is>
       </c>
       <c r="C392">
-        <v>0.032</v>
+        <v>0.03</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         </is>
       </c>
       <c r="C393">
-        <v>0.022</v>
+        <v>0.021</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         </is>
       </c>
       <c r="C394">
-        <v>0.038</v>
+        <v>0.036</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -7499,7 +7499,7 @@
         </is>
       </c>
       <c r="C397">
-        <v>0.028</v>
+        <v>0.026</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -7535,7 +7535,7 @@
         </is>
       </c>
       <c r="C399">
-        <v>0.404</v>
+        <v>0.419</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         </is>
       </c>
       <c r="C400">
-        <v>0.023</v>
+        <v>0.021</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="C401">
-        <v>0.155</v>
+        <v>0.153</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -7589,7 +7589,7 @@
         </is>
       </c>
       <c r="C402">
-        <v>0.026</v>
+        <v>0.025</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="C403">
-        <v>0.037</v>
+        <v>0.038</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -7625,7 +7625,7 @@
         </is>
       </c>
       <c r="C404">
-        <v>0.018</v>
+        <v>0.017</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         </is>
       </c>
       <c r="C406">
-        <v>0.021</v>
+        <v>0.02</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -7697,7 +7697,7 @@
         </is>
       </c>
       <c r="C408">
-        <v>0.049</v>
+        <v>0.048</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         </is>
       </c>
       <c r="C409">
-        <v>0.035</v>
+        <v>0.033</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -7733,7 +7733,7 @@
         </is>
       </c>
       <c r="C410">
-        <v>0.017</v>
+        <v>0.016</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -7751,7 +7751,7 @@
         </is>
       </c>
       <c r="C411">
-        <v>0.031</v>
+        <v>0.03</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         </is>
       </c>
       <c r="C412">
-        <v>0.022</v>
+        <v>0.021</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         </is>
       </c>
       <c r="C413">
-        <v>0.038</v>
+        <v>0.036</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         </is>
       </c>
       <c r="C415">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -7841,7 +7841,7 @@
         </is>
       </c>
       <c r="C416">
-        <v>0.028</v>
+        <v>0.026</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -7877,7 +7877,7 @@
         </is>
       </c>
       <c r="C418">
-        <v>0.404</v>
+        <v>0.418</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -7895,7 +7895,7 @@
         </is>
       </c>
       <c r="C419">
-        <v>0.022</v>
+        <v>0.021</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -7913,7 +7913,7 @@
         </is>
       </c>
       <c r="C420">
-        <v>0.156</v>
+        <v>0.154</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         </is>
       </c>
       <c r="C421">
-        <v>0.026</v>
+        <v>0.025</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -7949,7 +7949,7 @@
         </is>
       </c>
       <c r="C422">
-        <v>0.037</v>
+        <v>0.038</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         </is>
       </c>
       <c r="C427">
-        <v>0.05</v>
+        <v>0.049</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         </is>
       </c>
       <c r="C428">
-        <v>0.034</v>
+        <v>0.033</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -8093,7 +8093,7 @@
         </is>
       </c>
       <c r="C430">
-        <v>0.031</v>
+        <v>0.03</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         </is>
       </c>
       <c r="C431">
-        <v>0.022</v>
+        <v>0.021</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         </is>
       </c>
       <c r="C432">
-        <v>0.038</v>
+        <v>0.036</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         </is>
       </c>
       <c r="C434">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -8183,7 +8183,7 @@
         </is>
       </c>
       <c r="C435">
-        <v>0.027</v>
+        <v>0.026</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -8219,7 +8219,7 @@
         </is>
       </c>
       <c r="C437">
-        <v>0.403</v>
+        <v>0.417</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         </is>
       </c>
       <c r="C438">
-        <v>0.022</v>
+        <v>0.021</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -8255,7 +8255,7 @@
         </is>
       </c>
       <c r="C439">
-        <v>0.157</v>
+        <v>0.155</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         </is>
       </c>
       <c r="C440">
-        <v>0.026</v>
+        <v>0.025</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -8291,7 +8291,7 @@
         </is>
       </c>
       <c r="C441">
-        <v>0.037</v>
+        <v>0.038</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -8399,7 +8399,7 @@
         </is>
       </c>
       <c r="C447">
-        <v>0.034</v>
+        <v>0.033</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -8435,7 +8435,7 @@
         </is>
       </c>
       <c r="C449">
-        <v>0.031</v>
+        <v>0.03</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         </is>
       </c>
       <c r="C450">
-        <v>0.022</v>
+        <v>0.021</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="C451">
-        <v>0.038</v>
+        <v>0.036</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         </is>
       </c>
       <c r="C453">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -8525,7 +8525,7 @@
         </is>
       </c>
       <c r="C454">
-        <v>0.027</v>
+        <v>0.026</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -8561,7 +8561,7 @@
         </is>
       </c>
       <c r="C456">
-        <v>0.402</v>
+        <v>0.414</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -8579,7 +8579,7 @@
         </is>
       </c>
       <c r="C457">
-        <v>0.022</v>
+        <v>0.021</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -8597,7 +8597,7 @@
         </is>
       </c>
       <c r="C458">
-        <v>0.159</v>
+        <v>0.157</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         </is>
       </c>
       <c r="C459">
-        <v>0.026</v>
+        <v>0.025</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -8633,7 +8633,7 @@
         </is>
       </c>
       <c r="C460">
-        <v>0.037</v>
+        <v>0.038</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -8723,7 +8723,7 @@
         </is>
       </c>
       <c r="C465">
-        <v>0.051</v>
+        <v>0.05</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         </is>
       </c>
       <c r="C466">
-        <v>0.034</v>
+        <v>0.033</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -8777,7 +8777,7 @@
         </is>
       </c>
       <c r="C468">
-        <v>0.031</v>
+        <v>0.03</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -8813,7 +8813,7 @@
         </is>
       </c>
       <c r="C470">
-        <v>0.038</v>
+        <v>0.036</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         </is>
       </c>
       <c r="C472">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -8867,7 +8867,7 @@
         </is>
       </c>
       <c r="C473">
-        <v>0.027</v>
+        <v>0.026</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -8903,7 +8903,7 @@
         </is>
       </c>
       <c r="C475">
-        <v>0.4</v>
+        <v>0.412</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="C476">
-        <v>0.022</v>
+        <v>0.021</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -8939,7 +8939,7 @@
         </is>
       </c>
       <c r="C477">
-        <v>0.16</v>
+        <v>0.159</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         </is>
       </c>
       <c r="C478">
-        <v>0.026</v>
+        <v>0.025</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="C483">
-        <v>0.017</v>
+        <v>0.018</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -9065,7 +9065,7 @@
         </is>
       </c>
       <c r="C484">
-        <v>0.052</v>
+        <v>0.051</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -9083,7 +9083,7 @@
         </is>
       </c>
       <c r="C485">
-        <v>0.034</v>
+        <v>0.033</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -9119,7 +9119,7 @@
         </is>
       </c>
       <c r="C487">
-        <v>0.031</v>
+        <v>0.03</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         </is>
       </c>
       <c r="C489">
-        <v>0.038</v>
+        <v>0.036</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         </is>
       </c>
       <c r="C490">
-        <v>0.033</v>
+        <v>0.032</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -9191,7 +9191,7 @@
         </is>
       </c>
       <c r="C491">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -9209,7 +9209,7 @@
         </is>
       </c>
       <c r="C492">
-        <v>0.027</v>
+        <v>0.026</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -9245,7 +9245,7 @@
         </is>
       </c>
       <c r="C494">
-        <v>0.399</v>
+        <v>0.41</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -9263,7 +9263,7 @@
         </is>
       </c>
       <c r="C495">
-        <v>0.022</v>
+        <v>0.021</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -9281,7 +9281,7 @@
         </is>
       </c>
       <c r="C496">
-        <v>0.162</v>
+        <v>0.161</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -9299,7 +9299,7 @@
         </is>
       </c>
       <c r="C497">
-        <v>0.026</v>
+        <v>0.025</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         </is>
       </c>
       <c r="C503">
-        <v>0.052</v>
+        <v>0.051</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -9425,7 +9425,7 @@
         </is>
       </c>
       <c r="C504">
-        <v>0.034</v>
+        <v>0.033</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -9461,7 +9461,7 @@
         </is>
       </c>
       <c r="C506">
-        <v>0.031</v>
+        <v>0.03</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         </is>
       </c>
       <c r="C508">
-        <v>0.038</v>
+        <v>0.036</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -9551,7 +9551,7 @@
         </is>
       </c>
       <c r="C511">
-        <v>0.027</v>
+        <v>0.026</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -9569,7 +9569,7 @@
         </is>
       </c>
       <c r="C512">
-        <v>0.015</v>
+        <v>0.014</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -9587,7 +9587,7 @@
         </is>
       </c>
       <c r="C513">
-        <v>0.398</v>
+        <v>0.408</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -9605,7 +9605,7 @@
         </is>
       </c>
       <c r="C514">
-        <v>0.022</v>
+        <v>0.021</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -9623,7 +9623,7 @@
         </is>
       </c>
       <c r="C515">
-        <v>0.163</v>
+        <v>0.162</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         </is>
       </c>
       <c r="C516">
-        <v>0.026</v>
+        <v>0.025</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         </is>
       </c>
       <c r="C522">
-        <v>0.053</v>
+        <v>0.052</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="C523">
-        <v>0.034</v>
+        <v>0.033</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -9803,7 +9803,7 @@
         </is>
       </c>
       <c r="C525">
-        <v>0.031</v>
+        <v>0.03</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -9839,7 +9839,7 @@
         </is>
       </c>
       <c r="C527">
-        <v>0.038</v>
+        <v>0.036</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         </is>
       </c>
       <c r="C530">
-        <v>0.027</v>
+        <v>0.026</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         </is>
       </c>
       <c r="C531">
-        <v>0.015</v>
+        <v>0.014</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         </is>
       </c>
       <c r="C532">
-        <v>0.397</v>
+        <v>0.406</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -9947,7 +9947,7 @@
         </is>
       </c>
       <c r="C533">
-        <v>0.022</v>
+        <v>0.021</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -9965,7 +9965,7 @@
         </is>
       </c>
       <c r="C534">
-        <v>0.165</v>
+        <v>0.164</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -9983,7 +9983,7 @@
         </is>
       </c>
       <c r="C535">
-        <v>0.026</v>
+        <v>0.025</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -10109,7 +10109,7 @@
         </is>
       </c>
       <c r="C542">
-        <v>0.034</v>
+        <v>0.033</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -10145,7 +10145,7 @@
         </is>
       </c>
       <c r="C544">
-        <v>0.031</v>
+        <v>0.03</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -10181,7 +10181,7 @@
         </is>
       </c>
       <c r="C546">
-        <v>0.038</v>
+        <v>0.036</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         </is>
       </c>
       <c r="C549">
-        <v>0.027</v>
+        <v>0.026</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         </is>
       </c>
       <c r="C550">
-        <v>0.015</v>
+        <v>0.014</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="C551">
-        <v>0.395</v>
+        <v>0.404</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -10325,7 +10325,7 @@
         </is>
       </c>
       <c r="C554">
-        <v>0.026</v>
+        <v>0.025</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -10433,7 +10433,7 @@
         </is>
       </c>
       <c r="C560">
-        <v>0.054</v>
+        <v>0.053</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -10451,7 +10451,7 @@
         </is>
       </c>
       <c r="C561">
-        <v>0.034</v>
+        <v>0.033</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -10469,7 +10469,7 @@
         </is>
       </c>
       <c r="C562">
-        <v>0.017</v>
+        <v>0.016</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -10487,7 +10487,7 @@
         </is>
       </c>
       <c r="C563">
-        <v>0.031</v>
+        <v>0.03</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -10523,7 +10523,7 @@
         </is>
       </c>
       <c r="C565">
-        <v>0.038</v>
+        <v>0.036</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         </is>
       </c>
       <c r="C568">
-        <v>0.027</v>
+        <v>0.026</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         </is>
       </c>
       <c r="C570">
-        <v>0.394</v>
+        <v>0.402</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -10649,7 +10649,7 @@
         </is>
       </c>
       <c r="C572">
-        <v>0.168</v>
+        <v>0.167</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -10667,7 +10667,7 @@
         </is>
       </c>
       <c r="C573">
-        <v>0.026</v>
+        <v>0.025</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -10793,7 +10793,7 @@
         </is>
       </c>
       <c r="C580">
-        <v>0.034</v>
+        <v>0.033</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -10811,7 +10811,7 @@
         </is>
       </c>
       <c r="C581">
-        <v>0.017</v>
+        <v>0.016</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -10829,7 +10829,7 @@
         </is>
       </c>
       <c r="C582">
-        <v>0.031</v>
+        <v>0.03</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -10865,7 +10865,7 @@
         </is>
       </c>
       <c r="C584">
-        <v>0.038</v>
+        <v>0.036</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         </is>
       </c>
       <c r="C587">
-        <v>0.027</v>
+        <v>0.026</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         </is>
       </c>
       <c r="C589">
-        <v>0.393</v>
+        <v>0.4</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -11117,7 +11117,7 @@
         </is>
       </c>
       <c r="C598">
-        <v>0.055</v>
+        <v>0.054</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -11135,7 +11135,7 @@
         </is>
       </c>
       <c r="C599">
-        <v>0.034</v>
+        <v>0.033</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -11153,7 +11153,7 @@
         </is>
       </c>
       <c r="C600">
-        <v>0.017</v>
+        <v>0.016</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="C601">
-        <v>0.031</v>
+        <v>0.03</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         </is>
       </c>
       <c r="C603">
-        <v>0.038</v>
+        <v>0.036</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -11243,7 +11243,7 @@
         </is>
       </c>
       <c r="C605">
-        <v>0.024</v>
+        <v>0.023</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         </is>
       </c>
       <c r="C608">
-        <v>0.392</v>
+        <v>0.398</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -11315,7 +11315,7 @@
         </is>
       </c>
       <c r="C609">
-        <v>0.021</v>
+        <v>0.02</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -11387,7 +11387,7 @@
         </is>
       </c>
       <c r="C613">
-        <v>0.017</v>
+        <v>0.016</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -11477,7 +11477,7 @@
         </is>
       </c>
       <c r="C618">
-        <v>0.034</v>
+        <v>0.033</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         </is>
       </c>
       <c r="C619">
-        <v>0.017</v>
+        <v>0.016</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         </is>
       </c>
       <c r="C620">
-        <v>0.031</v>
+        <v>0.03</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         </is>
       </c>
       <c r="C622">
-        <v>0.038</v>
+        <v>0.036</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -11585,7 +11585,7 @@
         </is>
       </c>
       <c r="C624">
-        <v>0.024</v>
+        <v>0.023</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -11631,357 +11631,357 @@
     </row>
     <row r="627">
       <c r="A627">
-        <v>2021</v>
+        <v>1993</v>
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>Montevideo</t>
+          <t>Primaria</t>
         </is>
       </c>
       <c r="C627">
-        <v>0.391</v>
+        <v>0.487</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
-          <t>poblacion</t>
+          <t>educacion</t>
         </is>
       </c>
     </row>
     <row r="628">
       <c r="A628">
-        <v>2021</v>
+        <v>1993</v>
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>Artigas</t>
+          <t>Secundaria</t>
         </is>
       </c>
       <c r="C628">
-        <v>0.021</v>
+        <v>0.395</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
-          <t>poblacion</t>
+          <t>educacion</t>
         </is>
       </c>
     </row>
     <row r="629">
       <c r="A629">
-        <v>2021</v>
+        <v>1993</v>
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>Canelones</t>
+          <t>Terciaria</t>
         </is>
       </c>
       <c r="C629">
-        <v>0.172</v>
+        <v>0.118</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
-          <t>poblacion</t>
+          <t>educacion</t>
         </is>
       </c>
     </row>
     <row r="630">
       <c r="A630">
-        <v>2021</v>
+        <v>1994</v>
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>Cerro.Largo</t>
+          <t>Primaria</t>
         </is>
       </c>
       <c r="C630">
-        <v>0.025</v>
+        <v>0.486</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
-          <t>poblacion</t>
+          <t>educacion</t>
         </is>
       </c>
     </row>
     <row r="631">
       <c r="A631">
-        <v>2021</v>
+        <v>1994</v>
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>Colonia</t>
+          <t>Secundaria</t>
         </is>
       </c>
       <c r="C631">
-        <v>0.037</v>
+        <v>0.399</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
-          <t>poblacion</t>
+          <t>educacion</t>
         </is>
       </c>
     </row>
     <row r="632">
       <c r="A632">
-        <v>2021</v>
+        <v>1994</v>
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>Durazno</t>
+          <t>Terciaria</t>
         </is>
       </c>
       <c r="C632">
-        <v>0.017</v>
+        <v>0.116</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
-          <t>poblacion</t>
+          <t>educacion</t>
         </is>
       </c>
     </row>
     <row r="633">
       <c r="A633">
-        <v>2021</v>
+        <v>1995</v>
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>Flores</t>
+          <t>Primaria</t>
         </is>
       </c>
       <c r="C633">
-        <v>0.007</v>
+        <v>0.471</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
-          <t>poblacion</t>
+          <t>educacion</t>
         </is>
       </c>
     </row>
     <row r="634">
       <c r="A634">
-        <v>2021</v>
+        <v>1995</v>
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>Florida</t>
+          <t>Secundaria</t>
         </is>
       </c>
       <c r="C634">
-        <v>0.02</v>
+        <v>0.406</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
-          <t>poblacion</t>
+          <t>educacion</t>
         </is>
       </c>
     </row>
     <row r="635">
       <c r="A635">
-        <v>2021</v>
+        <v>1995</v>
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>Lavalleja</t>
+          <t>Terciaria</t>
         </is>
       </c>
       <c r="C635">
-        <v>0.017</v>
+        <v>0.123</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
-          <t>poblacion</t>
+          <t>educacion</t>
         </is>
       </c>
     </row>
     <row r="636">
       <c r="A636">
-        <v>2021</v>
+        <v>1996</v>
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>Maldonado</t>
+          <t>Primaria</t>
         </is>
       </c>
       <c r="C636">
-        <v>0.056</v>
+        <v>0.458</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
-          <t>poblacion</t>
+          <t>educacion</t>
         </is>
       </c>
     </row>
     <row r="637">
       <c r="A637">
-        <v>2021</v>
+        <v>1996</v>
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>Paysandú</t>
+          <t>Secundaria</t>
         </is>
       </c>
       <c r="C637">
-        <v>0.034</v>
+        <v>0.416</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
-          <t>poblacion</t>
+          <t>educacion</t>
         </is>
       </c>
     </row>
     <row r="638">
       <c r="A638">
-        <v>2021</v>
+        <v>1996</v>
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>Río.Negro</t>
+          <t>Terciaria</t>
         </is>
       </c>
       <c r="C638">
-        <v>0.017</v>
+        <v>0.126</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
-          <t>poblacion</t>
+          <t>educacion</t>
         </is>
       </c>
     </row>
     <row r="639">
       <c r="A639">
-        <v>2021</v>
+        <v>1997</v>
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>Rivera</t>
+          <t>Primaria</t>
         </is>
       </c>
       <c r="C639">
-        <v>0.031</v>
+        <v>0.46</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
-          <t>poblacion</t>
+          <t>educacion</t>
         </is>
       </c>
     </row>
     <row r="640">
       <c r="A640">
-        <v>2021</v>
+        <v>1997</v>
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>Rocha</t>
+          <t>Secundaria</t>
         </is>
       </c>
       <c r="C640">
-        <v>0.021</v>
+        <v>0.421</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
-          <t>poblacion</t>
+          <t>educacion</t>
         </is>
       </c>
     </row>
     <row r="641">
       <c r="A641">
-        <v>2021</v>
+        <v>1997</v>
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>Salto</t>
+          <t>Terciaria</t>
         </is>
       </c>
       <c r="C641">
-        <v>0.038</v>
+        <v>0.12</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
-          <t>poblacion</t>
+          <t>educacion</t>
         </is>
       </c>
     </row>
     <row r="642">
       <c r="A642">
-        <v>2021</v>
+        <v>1998</v>
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>San.José</t>
+          <t>Primaria</t>
         </is>
       </c>
       <c r="C642">
-        <v>0.034</v>
+        <v>0.423</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
-          <t>poblacion</t>
+          <t>educacion</t>
         </is>
       </c>
     </row>
     <row r="643">
       <c r="A643">
-        <v>2021</v>
+        <v>1998</v>
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>Soriano</t>
+          <t>Secundaria</t>
         </is>
       </c>
       <c r="C643">
-        <v>0.024</v>
+        <v>0.44</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
-          <t>poblacion</t>
+          <t>educacion</t>
         </is>
       </c>
     </row>
     <row r="644">
       <c r="A644">
-        <v>2021</v>
+        <v>1998</v>
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>Tacuarembó</t>
+          <t>Terciaria</t>
         </is>
       </c>
       <c r="C644">
-        <v>0.026</v>
+        <v>0.137</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
-          <t>poblacion</t>
+          <t>educacion</t>
         </is>
       </c>
     </row>
     <row r="645">
       <c r="A645">
-        <v>2021</v>
+        <v>1999</v>
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>Treinta.y.Tres</t>
+          <t>Primaria</t>
         </is>
       </c>
       <c r="C645">
-        <v>0.014</v>
+        <v>0.427</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
-          <t>poblacion</t>
+          <t>educacion</t>
         </is>
       </c>
     </row>
     <row r="646">
       <c r="A646">
-        <v>1993</v>
+        <v>1999</v>
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>Primaria</t>
+          <t>Secundaria</t>
         </is>
       </c>
       <c r="C646">
-        <v>0.487</v>
+        <v>0.442</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -11991,15 +11991,15 @@
     </row>
     <row r="647">
       <c r="A647">
-        <v>1993</v>
+        <v>1999</v>
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>Secundaria</t>
+          <t>Terciaria</t>
         </is>
       </c>
       <c r="C647">
-        <v>0.395</v>
+        <v>0.131</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -12009,15 +12009,15 @@
     </row>
     <row r="648">
       <c r="A648">
-        <v>1993</v>
+        <v>2000</v>
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>Terciaria</t>
+          <t>Primaria</t>
         </is>
       </c>
       <c r="C648">
-        <v>0.118</v>
+        <v>0.421</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -12027,15 +12027,15 @@
     </row>
     <row r="649">
       <c r="A649">
-        <v>1994</v>
+        <v>2000</v>
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>Primaria</t>
+          <t>Secundaria</t>
         </is>
       </c>
       <c r="C649">
-        <v>0.486</v>
+        <v>0.441</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -12045,15 +12045,15 @@
     </row>
     <row r="650">
       <c r="A650">
-        <v>1994</v>
+        <v>2000</v>
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>Secundaria</t>
+          <t>Terciaria</t>
         </is>
       </c>
       <c r="C650">
-        <v>0.399</v>
+        <v>0.138</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -12063,15 +12063,15 @@
     </row>
     <row r="651">
       <c r="A651">
-        <v>1994</v>
+        <v>2001</v>
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>Terciaria</t>
+          <t>Primaria</t>
         </is>
       </c>
       <c r="C651">
-        <v>0.116</v>
+        <v>0.407</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -12081,15 +12081,15 @@
     </row>
     <row r="652">
       <c r="A652">
-        <v>1995</v>
+        <v>2001</v>
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>Primaria</t>
+          <t>Secundaria</t>
         </is>
       </c>
       <c r="C652">
-        <v>0.471</v>
+        <v>0.452</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -12099,15 +12099,15 @@
     </row>
     <row r="653">
       <c r="A653">
-        <v>1995</v>
+        <v>2001</v>
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>Secundaria</t>
+          <t>Terciaria</t>
         </is>
       </c>
       <c r="C653">
-        <v>0.406</v>
+        <v>0.141</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -12117,15 +12117,15 @@
     </row>
     <row r="654">
       <c r="A654">
-        <v>1995</v>
+        <v>2002</v>
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>Terciaria</t>
+          <t>Primaria</t>
         </is>
       </c>
       <c r="C654">
-        <v>0.123</v>
+        <v>0.398</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -12135,15 +12135,15 @@
     </row>
     <row r="655">
       <c r="A655">
-        <v>1996</v>
+        <v>2002</v>
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>Primaria</t>
+          <t>Secundaria</t>
         </is>
       </c>
       <c r="C655">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -12153,15 +12153,15 @@
     </row>
     <row r="656">
       <c r="A656">
-        <v>1996</v>
+        <v>2002</v>
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>Secundaria</t>
+          <t>Terciaria</t>
         </is>
       </c>
       <c r="C656">
-        <v>0.416</v>
+        <v>0.145</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -12171,15 +12171,15 @@
     </row>
     <row r="657">
       <c r="A657">
-        <v>1996</v>
+        <v>2003</v>
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>Terciaria</t>
+          <t>Primaria</t>
         </is>
       </c>
       <c r="C657">
-        <v>0.126</v>
+        <v>0.397</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -12189,15 +12189,15 @@
     </row>
     <row r="658">
       <c r="A658">
-        <v>1997</v>
+        <v>2003</v>
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>Primaria</t>
+          <t>Secundaria</t>
         </is>
       </c>
       <c r="C658">
-        <v>0.46</v>
+        <v>0.457</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -12207,15 +12207,15 @@
     </row>
     <row r="659">
       <c r="A659">
-        <v>1997</v>
+        <v>2003</v>
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>Secundaria</t>
+          <t>Terciaria</t>
         </is>
       </c>
       <c r="C659">
-        <v>0.421</v>
+        <v>0.146</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -12225,15 +12225,15 @@
     </row>
     <row r="660">
       <c r="A660">
-        <v>1997</v>
+        <v>2004</v>
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>Terciaria</t>
+          <t>Primaria</t>
         </is>
       </c>
       <c r="C660">
-        <v>0.12</v>
+        <v>0.377</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -12243,15 +12243,15 @@
     </row>
     <row r="661">
       <c r="A661">
-        <v>1998</v>
+        <v>2004</v>
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>Primaria</t>
+          <t>Secundaria</t>
         </is>
       </c>
       <c r="C661">
-        <v>0.423</v>
+        <v>0.47</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -12261,15 +12261,15 @@
     </row>
     <row r="662">
       <c r="A662">
-        <v>1998</v>
+        <v>2004</v>
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>Secundaria</t>
+          <t>Terciaria</t>
         </is>
       </c>
       <c r="C662">
-        <v>0.44</v>
+        <v>0.154</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -12279,15 +12279,15 @@
     </row>
     <row r="663">
       <c r="A663">
-        <v>1998</v>
+        <v>2005</v>
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>Terciaria</t>
+          <t>Primaria</t>
         </is>
       </c>
       <c r="C663">
-        <v>0.137</v>
+        <v>0.376</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -12297,15 +12297,15 @@
     </row>
     <row r="664">
       <c r="A664">
-        <v>1999</v>
+        <v>2005</v>
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>Primaria</t>
+          <t>Secundaria</t>
         </is>
       </c>
       <c r="C664">
-        <v>0.427</v>
+        <v>0.468</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -12315,15 +12315,15 @@
     </row>
     <row r="665">
       <c r="A665">
-        <v>1999</v>
+        <v>2005</v>
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>Secundaria</t>
+          <t>Terciaria</t>
         </is>
       </c>
       <c r="C665">
-        <v>0.442</v>
+        <v>0.156</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -12333,15 +12333,15 @@
     </row>
     <row r="666">
       <c r="A666">
-        <v>1999</v>
+        <v>2006</v>
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>Terciaria</t>
+          <t>Primaria</t>
         </is>
       </c>
       <c r="C666">
-        <v>0.131</v>
+        <v>0.393</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -12351,15 +12351,15 @@
     </row>
     <row r="667">
       <c r="A667">
-        <v>2000</v>
+        <v>2006</v>
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>Primaria</t>
+          <t>Secundaria</t>
         </is>
       </c>
       <c r="C667">
-        <v>0.421</v>
+        <v>0.455</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -12369,15 +12369,15 @@
     </row>
     <row r="668">
       <c r="A668">
-        <v>2000</v>
+        <v>2006</v>
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>Secundaria</t>
+          <t>Terciaria</t>
         </is>
       </c>
       <c r="C668">
-        <v>0.441</v>
+        <v>0.152</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -12387,15 +12387,15 @@
     </row>
     <row r="669">
       <c r="A669">
-        <v>2000</v>
+        <v>2007</v>
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>Terciaria</t>
+          <t>Primaria</t>
         </is>
       </c>
       <c r="C669">
-        <v>0.138</v>
+        <v>0.381</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -12405,15 +12405,15 @@
     </row>
     <row r="670">
       <c r="A670">
-        <v>2001</v>
+        <v>2007</v>
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>Primaria</t>
+          <t>Secundaria</t>
         </is>
       </c>
       <c r="C670">
-        <v>0.407</v>
+        <v>0.461</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -12423,15 +12423,15 @@
     </row>
     <row r="671">
       <c r="A671">
-        <v>2001</v>
+        <v>2007</v>
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>Secundaria</t>
+          <t>Terciaria</t>
         </is>
       </c>
       <c r="C671">
-        <v>0.452</v>
+        <v>0.158</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -12441,15 +12441,15 @@
     </row>
     <row r="672">
       <c r="A672">
-        <v>2001</v>
+        <v>2008</v>
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>Terciaria</t>
+          <t>Primaria</t>
         </is>
       </c>
       <c r="C672">
-        <v>0.141</v>
+        <v>0.374</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -12459,15 +12459,15 @@
     </row>
     <row r="673">
       <c r="A673">
-        <v>2002</v>
+        <v>2008</v>
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>Primaria</t>
+          <t>Secundaria</t>
         </is>
       </c>
       <c r="C673">
-        <v>0.398</v>
+        <v>0.474</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -12477,15 +12477,15 @@
     </row>
     <row r="674">
       <c r="A674">
-        <v>2002</v>
+        <v>2008</v>
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>Secundaria</t>
+          <t>Terciaria</t>
         </is>
       </c>
       <c r="C674">
-        <v>0.457</v>
+        <v>0.152</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -12495,15 +12495,15 @@
     </row>
     <row r="675">
       <c r="A675">
-        <v>2002</v>
+        <v>2009</v>
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>Terciaria</t>
+          <t>Primaria</t>
         </is>
       </c>
       <c r="C675">
-        <v>0.145</v>
+        <v>0.371</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -12513,15 +12513,15 @@
     </row>
     <row r="676">
       <c r="A676">
-        <v>2003</v>
+        <v>2009</v>
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>Primaria</t>
+          <t>Secundaria</t>
         </is>
       </c>
       <c r="C676">
-        <v>0.397</v>
+        <v>0.471</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -12531,15 +12531,15 @@
     </row>
     <row r="677">
       <c r="A677">
-        <v>2003</v>
+        <v>2009</v>
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>Secundaria</t>
+          <t>Terciaria</t>
         </is>
       </c>
       <c r="C677">
-        <v>0.457</v>
+        <v>0.158</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -12549,15 +12549,15 @@
     </row>
     <row r="678">
       <c r="A678">
-        <v>2003</v>
+        <v>2010</v>
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>Terciaria</t>
+          <t>Primaria</t>
         </is>
       </c>
       <c r="C678">
-        <v>0.146</v>
+        <v>0.373</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -12567,15 +12567,15 @@
     </row>
     <row r="679">
       <c r="A679">
-        <v>2004</v>
+        <v>2010</v>
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>Primaria</t>
+          <t>Secundaria</t>
         </is>
       </c>
       <c r="C679">
-        <v>0.377</v>
+        <v>0.475</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -12585,15 +12585,15 @@
     </row>
     <row r="680">
       <c r="A680">
-        <v>2004</v>
+        <v>2010</v>
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>Secundaria</t>
+          <t>Terciaria</t>
         </is>
       </c>
       <c r="C680">
-        <v>0.47</v>
+        <v>0.151</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -12603,15 +12603,15 @@
     </row>
     <row r="681">
       <c r="A681">
-        <v>2004</v>
+        <v>2011</v>
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>Terciaria</t>
+          <t>Primaria</t>
         </is>
       </c>
       <c r="C681">
-        <v>0.154</v>
+        <v>0.341</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -12621,15 +12621,15 @@
     </row>
     <row r="682">
       <c r="A682">
-        <v>2005</v>
+        <v>2011</v>
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>Primaria</t>
+          <t>Secundaria</t>
         </is>
       </c>
       <c r="C682">
-        <v>0.376</v>
+        <v>0.487</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -12639,15 +12639,15 @@
     </row>
     <row r="683">
       <c r="A683">
-        <v>2005</v>
+        <v>2011</v>
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>Secundaria</t>
+          <t>Terciaria</t>
         </is>
       </c>
       <c r="C683">
-        <v>0.468</v>
+        <v>0.172</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -12657,15 +12657,15 @@
     </row>
     <row r="684">
       <c r="A684">
-        <v>2005</v>
+        <v>2012</v>
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>Terciaria</t>
+          <t>Primaria</t>
         </is>
       </c>
       <c r="C684">
-        <v>0.156</v>
+        <v>0.326</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -12675,15 +12675,15 @@
     </row>
     <row r="685">
       <c r="A685">
-        <v>2006</v>
+        <v>2012</v>
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>Primaria</t>
+          <t>Secundaria</t>
         </is>
       </c>
       <c r="C685">
-        <v>0.393</v>
+        <v>0.498</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -12693,15 +12693,15 @@
     </row>
     <row r="686">
       <c r="A686">
-        <v>2006</v>
+        <v>2012</v>
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>Secundaria</t>
+          <t>Terciaria</t>
         </is>
       </c>
       <c r="C686">
-        <v>0.455</v>
+        <v>0.176</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -12711,15 +12711,15 @@
     </row>
     <row r="687">
       <c r="A687">
-        <v>2006</v>
+        <v>2013</v>
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>Terciaria</t>
+          <t>Primaria</t>
         </is>
       </c>
       <c r="C687">
-        <v>0.152</v>
+        <v>0.329</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -12729,15 +12729,15 @@
     </row>
     <row r="688">
       <c r="A688">
-        <v>2007</v>
+        <v>2013</v>
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>Primaria</t>
+          <t>Secundaria</t>
         </is>
       </c>
       <c r="C688">
-        <v>0.381</v>
+        <v>0.493</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -12747,15 +12747,15 @@
     </row>
     <row r="689">
       <c r="A689">
-        <v>2007</v>
+        <v>2013</v>
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>Secundaria</t>
+          <t>Terciaria</t>
         </is>
       </c>
       <c r="C689">
-        <v>0.461</v>
+        <v>0.177</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -12765,15 +12765,15 @@
     </row>
     <row r="690">
       <c r="A690">
-        <v>2007</v>
+        <v>2014</v>
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>Terciaria</t>
+          <t>Primaria</t>
         </is>
       </c>
       <c r="C690">
-        <v>0.158</v>
+        <v>0.309</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -12783,15 +12783,15 @@
     </row>
     <row r="691">
       <c r="A691">
-        <v>2008</v>
+        <v>2014</v>
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>Primaria</t>
+          <t>Secundaria</t>
         </is>
       </c>
       <c r="C691">
-        <v>0.374</v>
+        <v>0.502</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -12801,15 +12801,15 @@
     </row>
     <row r="692">
       <c r="A692">
-        <v>2008</v>
+        <v>2014</v>
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>Secundaria</t>
+          <t>Terciaria</t>
         </is>
       </c>
       <c r="C692">
-        <v>0.474</v>
+        <v>0.189</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -12819,15 +12819,15 @@
     </row>
     <row r="693">
       <c r="A693">
-        <v>2008</v>
+        <v>2015</v>
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>Terciaria</t>
+          <t>Primaria</t>
         </is>
       </c>
       <c r="C693">
-        <v>0.152</v>
+        <v>0.31</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -12837,15 +12837,15 @@
     </row>
     <row r="694">
       <c r="A694">
-        <v>2009</v>
+        <v>2015</v>
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>Primaria</t>
+          <t>Secundaria</t>
         </is>
       </c>
       <c r="C694">
-        <v>0.371</v>
+        <v>0.506</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -12855,15 +12855,15 @@
     </row>
     <row r="695">
       <c r="A695">
-        <v>2009</v>
+        <v>2015</v>
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>Secundaria</t>
+          <t>Terciaria</t>
         </is>
       </c>
       <c r="C695">
-        <v>0.471</v>
+        <v>0.184</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -12873,15 +12873,15 @@
     </row>
     <row r="696">
       <c r="A696">
-        <v>2009</v>
+        <v>2016</v>
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>Terciaria</t>
+          <t>Primaria</t>
         </is>
       </c>
       <c r="C696">
-        <v>0.158</v>
+        <v>0.306</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -12891,15 +12891,15 @@
     </row>
     <row r="697">
       <c r="A697">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>Primaria</t>
+          <t>Secundaria</t>
         </is>
       </c>
       <c r="C697">
-        <v>0.373</v>
+        <v>0.513</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -12909,15 +12909,15 @@
     </row>
     <row r="698">
       <c r="A698">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>Secundaria</t>
+          <t>Terciaria</t>
         </is>
       </c>
       <c r="C698">
-        <v>0.475</v>
+        <v>0.18</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -12927,15 +12927,15 @@
     </row>
     <row r="699">
       <c r="A699">
-        <v>2010</v>
+        <v>2017</v>
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>Terciaria</t>
+          <t>Primaria</t>
         </is>
       </c>
       <c r="C699">
-        <v>0.151</v>
+        <v>0.297</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -12945,15 +12945,15 @@
     </row>
     <row r="700">
       <c r="A700">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>Primaria</t>
+          <t>Secundaria</t>
         </is>
       </c>
       <c r="C700">
-        <v>0.341</v>
+        <v>0.511</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -12963,15 +12963,15 @@
     </row>
     <row r="701">
       <c r="A701">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>Secundaria</t>
+          <t>Terciaria</t>
         </is>
       </c>
       <c r="C701">
-        <v>0.487</v>
+        <v>0.191</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -12981,15 +12981,15 @@
     </row>
     <row r="702">
       <c r="A702">
-        <v>2011</v>
+        <v>2018</v>
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>Terciaria</t>
+          <t>Primaria</t>
         </is>
       </c>
       <c r="C702">
-        <v>0.172</v>
+        <v>0.288</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -12999,15 +12999,15 @@
     </row>
     <row r="703">
       <c r="A703">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>Primaria</t>
+          <t>Secundaria</t>
         </is>
       </c>
       <c r="C703">
-        <v>0.326</v>
+        <v>0.516</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -13017,15 +13017,15 @@
     </row>
     <row r="704">
       <c r="A704">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>Secundaria</t>
+          <t>Terciaria</t>
         </is>
       </c>
       <c r="C704">
-        <v>0.498</v>
+        <v>0.195</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -13035,15 +13035,15 @@
     </row>
     <row r="705">
       <c r="A705">
-        <v>2012</v>
+        <v>2019</v>
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>Terciaria</t>
+          <t>Primaria</t>
         </is>
       </c>
       <c r="C705">
-        <v>0.176</v>
+        <v>0.284</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -13053,15 +13053,15 @@
     </row>
     <row r="706">
       <c r="A706">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>Primaria</t>
+          <t>Secundaria</t>
         </is>
       </c>
       <c r="C706">
-        <v>0.329</v>
+        <v>0.515</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -13071,15 +13071,15 @@
     </row>
     <row r="707">
       <c r="A707">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>Secundaria</t>
+          <t>Terciaria</t>
         </is>
       </c>
       <c r="C707">
-        <v>0.493</v>
+        <v>0.202</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -13089,357 +13089,357 @@
     </row>
     <row r="708">
       <c r="A708">
-        <v>2013</v>
+        <v>1989</v>
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>Terciaria</t>
+          <t>Partido Nacional</t>
         </is>
       </c>
       <c r="C708">
-        <v>0.177</v>
+        <v>0.373</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
-          <t>educacion</t>
+          <t>voto_anterior</t>
         </is>
       </c>
     </row>
     <row r="709">
       <c r="A709">
-        <v>2014</v>
+        <v>1989</v>
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>Primaria</t>
+          <t>Partido Colorado</t>
         </is>
       </c>
       <c r="C709">
-        <v>0.309</v>
+        <v>0.29</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
-          <t>educacion</t>
+          <t>voto_anterior</t>
         </is>
       </c>
     </row>
     <row r="710">
       <c r="A710">
-        <v>2014</v>
+        <v>1989</v>
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>Secundaria</t>
+          <t>Frente Amplio</t>
         </is>
       </c>
       <c r="C710">
-        <v>0.502</v>
+        <v>0.203</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
-          <t>educacion</t>
+          <t>voto_anterior</t>
         </is>
       </c>
     </row>
     <row r="711">
       <c r="A711">
-        <v>2014</v>
+        <v>1989</v>
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>Terciaria</t>
+          <t>Nuevo Espacio</t>
         </is>
       </c>
       <c r="C711">
-        <v>0.189</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
-          <t>educacion</t>
+          <t>voto_anterior</t>
         </is>
       </c>
     </row>
     <row r="712">
       <c r="A712">
-        <v>2015</v>
+        <v>1989</v>
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>Primaria</t>
+          <t>OPBN</t>
         </is>
       </c>
       <c r="C712">
-        <v>0.31</v>
+        <v>0.046</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
-          <t>educacion</t>
+          <t>voto_anterior</t>
         </is>
       </c>
     </row>
     <row r="713">
       <c r="A713">
-        <v>2015</v>
+        <v>1994</v>
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>Secundaria</t>
+          <t>Partido Colorado</t>
         </is>
       </c>
       <c r="C713">
-        <v>0.506</v>
+        <v>0.308</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
-          <t>educacion</t>
+          <t>voto_anterior</t>
         </is>
       </c>
     </row>
     <row r="714">
       <c r="A714">
-        <v>2015</v>
+        <v>1994</v>
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>Terciaria</t>
+          <t>Partido Nacional</t>
         </is>
       </c>
       <c r="C714">
-        <v>0.184</v>
+        <v>0.297</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
-          <t>educacion</t>
+          <t>voto_anterior</t>
         </is>
       </c>
     </row>
     <row r="715">
       <c r="A715">
-        <v>2016</v>
+        <v>1994</v>
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>Primaria</t>
+          <t>Frente Amplio</t>
         </is>
       </c>
       <c r="C715">
-        <v>0.306</v>
+        <v>0.292</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
-          <t>educacion</t>
+          <t>voto_anterior</t>
         </is>
       </c>
     </row>
     <row r="716">
       <c r="A716">
-        <v>2016</v>
+        <v>1994</v>
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>Secundaria</t>
+          <t>OPBN</t>
         </is>
       </c>
       <c r="C716">
-        <v>0.513</v>
+        <v>0.102</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
-          <t>educacion</t>
+          <t>voto_anterior</t>
         </is>
       </c>
     </row>
     <row r="717">
       <c r="A717">
-        <v>2016</v>
+        <v>1999</v>
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>Terciaria</t>
+          <t>Frente Amplio</t>
         </is>
       </c>
       <c r="C717">
-        <v>0.18</v>
+        <v>0.39</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
-          <t>educacion</t>
+          <t>voto_anterior</t>
         </is>
       </c>
     </row>
     <row r="718">
       <c r="A718">
-        <v>2017</v>
+        <v>1999</v>
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>Primaria</t>
+          <t>Partido Colorado</t>
         </is>
       </c>
       <c r="C718">
-        <v>0.297</v>
+        <v>0.319</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
-          <t>educacion</t>
+          <t>voto_anterior</t>
         </is>
       </c>
     </row>
     <row r="719">
       <c r="A719">
-        <v>2017</v>
+        <v>1999</v>
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>Secundaria</t>
+          <t>Partido Nacional</t>
         </is>
       </c>
       <c r="C719">
-        <v>0.511</v>
+        <v>0.217</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
-          <t>educacion</t>
+          <t>voto_anterior</t>
         </is>
       </c>
     </row>
     <row r="720">
       <c r="A720">
-        <v>2017</v>
+        <v>1999</v>
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>Terciaria</t>
+          <t>OPBN</t>
         </is>
       </c>
       <c r="C720">
-        <v>0.191</v>
+        <v>0.072</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
-          <t>educacion</t>
+          <t>voto_anterior</t>
         </is>
       </c>
     </row>
     <row r="721">
       <c r="A721">
-        <v>2018</v>
+        <v>2004</v>
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>Primaria</t>
+          <t>Frente Amplio</t>
         </is>
       </c>
       <c r="C721">
-        <v>0.288</v>
+        <v>0.504</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
-          <t>educacion</t>
+          <t>voto_anterior</t>
         </is>
       </c>
     </row>
     <row r="722">
       <c r="A722">
-        <v>2018</v>
+        <v>2004</v>
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>Secundaria</t>
+          <t>Partido Nacional</t>
         </is>
       </c>
       <c r="C722">
-        <v>0.516</v>
+        <v>0.343</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
-          <t>educacion</t>
+          <t>voto_anterior</t>
         </is>
       </c>
     </row>
     <row r="723">
       <c r="A723">
-        <v>2018</v>
+        <v>2004</v>
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>Terciaria</t>
+          <t>Partido Colorado</t>
         </is>
       </c>
       <c r="C723">
-        <v>0.195</v>
+        <v>0.104</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
-          <t>educacion</t>
+          <t>voto_anterior</t>
         </is>
       </c>
     </row>
     <row r="724">
       <c r="A724">
-        <v>2019</v>
+        <v>2004</v>
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>Primaria</t>
+          <t>OPBN</t>
         </is>
       </c>
       <c r="C724">
-        <v>0.284</v>
+        <v>0.049</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
-          <t>educacion</t>
+          <t>voto_anterior</t>
         </is>
       </c>
     </row>
     <row r="725">
       <c r="A725">
-        <v>2019</v>
+        <v>2009</v>
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>Secundaria</t>
+          <t>Frente Amplio</t>
         </is>
       </c>
       <c r="C725">
-        <v>0.515</v>
+        <v>0.485</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
-          <t>educacion</t>
+          <t>voto_anterior</t>
         </is>
       </c>
     </row>
     <row r="726">
       <c r="A726">
-        <v>2019</v>
+        <v>2009</v>
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>Terciaria</t>
+          <t>Partido Nacional</t>
         </is>
       </c>
       <c r="C726">
-        <v>0.202</v>
+        <v>0.291</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
-          <t>educacion</t>
+          <t>voto_anterior</t>
         </is>
       </c>
     </row>
     <row r="727">
       <c r="A727">
-        <v>1989</v>
+        <v>2009</v>
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>Partido Nacional</t>
+          <t>Partido Colorado</t>
         </is>
       </c>
       <c r="C727">
-        <v>0.373</v>
+        <v>0.17</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -13449,15 +13449,15 @@
     </row>
     <row r="728">
       <c r="A728">
-        <v>1989</v>
+        <v>2009</v>
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>Partido Colorado</t>
+          <t>OPBN</t>
         </is>
       </c>
       <c r="C728">
-        <v>0.29</v>
+        <v>0.054</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
     </row>
     <row r="729">
       <c r="A729">
-        <v>1989</v>
+        <v>2014</v>
       </c>
       <c r="B729" t="inlineStr">
         <is>
@@ -13475,7 +13475,7 @@
         </is>
       </c>
       <c r="C729">
-        <v>0.203</v>
+        <v>0.478</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -13485,15 +13485,15 @@
     </row>
     <row r="730">
       <c r="A730">
-        <v>1989</v>
+        <v>2014</v>
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>Nuevo Espacio</t>
+          <t>Partido Nacional</t>
         </is>
       </c>
       <c r="C730">
-        <v>0.08599999999999999</v>
+        <v>0.309</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -13503,15 +13503,15 @@
     </row>
     <row r="731">
       <c r="A731">
-        <v>1989</v>
+        <v>2014</v>
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>OPBN</t>
+          <t>Partido Colorado</t>
         </is>
       </c>
       <c r="C731">
-        <v>0.046</v>
+        <v>0.129</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -13521,15 +13521,15 @@
     </row>
     <row r="732">
       <c r="A732">
-        <v>1994</v>
+        <v>2014</v>
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>Partido Colorado</t>
+          <t>OPBN</t>
         </is>
       </c>
       <c r="C732">
-        <v>0.308</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -13539,15 +13539,15 @@
     </row>
     <row r="733">
       <c r="A733">
-        <v>1994</v>
+        <v>2019</v>
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>Partido Nacional</t>
+          <t>Frente Amplio</t>
         </is>
       </c>
       <c r="C733">
-        <v>0.297</v>
+        <v>0.393</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -13557,15 +13557,15 @@
     </row>
     <row r="734">
       <c r="A734">
-        <v>1994</v>
+        <v>2019</v>
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>Frente Amplio</t>
+          <t>Partido Nacional</t>
         </is>
       </c>
       <c r="C734">
-        <v>0.292</v>
+        <v>0.288</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -13575,15 +13575,15 @@
     </row>
     <row r="735">
       <c r="A735">
-        <v>1994</v>
+        <v>2019</v>
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>OPBN</t>
+          <t>Partido Colorado</t>
         </is>
       </c>
       <c r="C735">
-        <v>0.102</v>
+        <v>0.124</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -13593,15 +13593,15 @@
     </row>
     <row r="736">
       <c r="A736">
-        <v>1999</v>
+        <v>2019</v>
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>Frente Amplio</t>
+          <t>Cabildo Abierto</t>
         </is>
       </c>
       <c r="C736">
-        <v>0.39</v>
+        <v>0.111</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -13611,359 +13611,17 @@
     </row>
     <row r="737">
       <c r="A737">
-        <v>1999</v>
+        <v>2019</v>
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>Partido Colorado</t>
+          <t>OPBN</t>
         </is>
       </c>
       <c r="C737">
-        <v>0.319</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="D737" t="inlineStr">
-        <is>
-          <t>voto_anterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="738">
-      <c r="A738">
-        <v>1999</v>
-      </c>
-      <c r="B738" t="inlineStr">
-        <is>
-          <t>Partido Nacional</t>
-        </is>
-      </c>
-      <c r="C738">
-        <v>0.217</v>
-      </c>
-      <c r="D738" t="inlineStr">
-        <is>
-          <t>voto_anterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="739">
-      <c r="A739">
-        <v>1999</v>
-      </c>
-      <c r="B739" t="inlineStr">
-        <is>
-          <t>OPBN</t>
-        </is>
-      </c>
-      <c r="C739">
-        <v>0.072</v>
-      </c>
-      <c r="D739" t="inlineStr">
-        <is>
-          <t>voto_anterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="740">
-      <c r="A740">
-        <v>2004</v>
-      </c>
-      <c r="B740" t="inlineStr">
-        <is>
-          <t>Frente Amplio</t>
-        </is>
-      </c>
-      <c r="C740">
-        <v>0.504</v>
-      </c>
-      <c r="D740" t="inlineStr">
-        <is>
-          <t>voto_anterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="741">
-      <c r="A741">
-        <v>2004</v>
-      </c>
-      <c r="B741" t="inlineStr">
-        <is>
-          <t>Partido Nacional</t>
-        </is>
-      </c>
-      <c r="C741">
-        <v>0.343</v>
-      </c>
-      <c r="D741" t="inlineStr">
-        <is>
-          <t>voto_anterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="742">
-      <c r="A742">
-        <v>2004</v>
-      </c>
-      <c r="B742" t="inlineStr">
-        <is>
-          <t>Partido Colorado</t>
-        </is>
-      </c>
-      <c r="C742">
-        <v>0.104</v>
-      </c>
-      <c r="D742" t="inlineStr">
-        <is>
-          <t>voto_anterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="743">
-      <c r="A743">
-        <v>2004</v>
-      </c>
-      <c r="B743" t="inlineStr">
-        <is>
-          <t>OPBN</t>
-        </is>
-      </c>
-      <c r="C743">
-        <v>0.049</v>
-      </c>
-      <c r="D743" t="inlineStr">
-        <is>
-          <t>voto_anterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="744">
-      <c r="A744">
-        <v>2009</v>
-      </c>
-      <c r="B744" t="inlineStr">
-        <is>
-          <t>Frente Amplio</t>
-        </is>
-      </c>
-      <c r="C744">
-        <v>0.485</v>
-      </c>
-      <c r="D744" t="inlineStr">
-        <is>
-          <t>voto_anterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="745">
-      <c r="A745">
-        <v>2009</v>
-      </c>
-      <c r="B745" t="inlineStr">
-        <is>
-          <t>Partido Nacional</t>
-        </is>
-      </c>
-      <c r="C745">
-        <v>0.291</v>
-      </c>
-      <c r="D745" t="inlineStr">
-        <is>
-          <t>voto_anterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="746">
-      <c r="A746">
-        <v>2009</v>
-      </c>
-      <c r="B746" t="inlineStr">
-        <is>
-          <t>Partido Colorado</t>
-        </is>
-      </c>
-      <c r="C746">
-        <v>0.17</v>
-      </c>
-      <c r="D746" t="inlineStr">
-        <is>
-          <t>voto_anterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="747">
-      <c r="A747">
-        <v>2009</v>
-      </c>
-      <c r="B747" t="inlineStr">
-        <is>
-          <t>OPBN</t>
-        </is>
-      </c>
-      <c r="C747">
-        <v>0.054</v>
-      </c>
-      <c r="D747" t="inlineStr">
-        <is>
-          <t>voto_anterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="748">
-      <c r="A748">
-        <v>2014</v>
-      </c>
-      <c r="B748" t="inlineStr">
-        <is>
-          <t>Frente Amplio</t>
-        </is>
-      </c>
-      <c r="C748">
-        <v>0.478</v>
-      </c>
-      <c r="D748" t="inlineStr">
-        <is>
-          <t>voto_anterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="749">
-      <c r="A749">
-        <v>2014</v>
-      </c>
-      <c r="B749" t="inlineStr">
-        <is>
-          <t>Partido Nacional</t>
-        </is>
-      </c>
-      <c r="C749">
-        <v>0.309</v>
-      </c>
-      <c r="D749" t="inlineStr">
-        <is>
-          <t>voto_anterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="750">
-      <c r="A750">
-        <v>2014</v>
-      </c>
-      <c r="B750" t="inlineStr">
-        <is>
-          <t>Partido Colorado</t>
-        </is>
-      </c>
-      <c r="C750">
-        <v>0.129</v>
-      </c>
-      <c r="D750" t="inlineStr">
-        <is>
-          <t>voto_anterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="751">
-      <c r="A751">
-        <v>2014</v>
-      </c>
-      <c r="B751" t="inlineStr">
-        <is>
-          <t>OPBN</t>
-        </is>
-      </c>
-      <c r="C751">
-        <v>0.08400000000000001</v>
-      </c>
-      <c r="D751" t="inlineStr">
-        <is>
-          <t>voto_anterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="752">
-      <c r="A752">
-        <v>2019</v>
-      </c>
-      <c r="B752" t="inlineStr">
-        <is>
-          <t>Frente Amplio</t>
-        </is>
-      </c>
-      <c r="C752">
-        <v>0.393</v>
-      </c>
-      <c r="D752" t="inlineStr">
-        <is>
-          <t>voto_anterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="753">
-      <c r="A753">
-        <v>2019</v>
-      </c>
-      <c r="B753" t="inlineStr">
-        <is>
-          <t>Partido Nacional</t>
-        </is>
-      </c>
-      <c r="C753">
-        <v>0.288</v>
-      </c>
-      <c r="D753" t="inlineStr">
-        <is>
-          <t>voto_anterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="754">
-      <c r="A754">
-        <v>2019</v>
-      </c>
-      <c r="B754" t="inlineStr">
-        <is>
-          <t>Partido Colorado</t>
-        </is>
-      </c>
-      <c r="C754">
-        <v>0.124</v>
-      </c>
-      <c r="D754" t="inlineStr">
-        <is>
-          <t>voto_anterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="755">
-      <c r="A755">
-        <v>2019</v>
-      </c>
-      <c r="B755" t="inlineStr">
-        <is>
-          <t>Cabildo Abierto</t>
-        </is>
-      </c>
-      <c r="C755">
-        <v>0.111</v>
-      </c>
-      <c r="D755" t="inlineStr">
-        <is>
-          <t>voto_anterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="756">
-      <c r="A756">
-        <v>2019</v>
-      </c>
-      <c r="B756" t="inlineStr">
-        <is>
-          <t>OPBN</t>
-        </is>
-      </c>
-      <c r="C756">
-        <v>0.08500000000000001</v>
-      </c>
-      <c r="D756" t="inlineStr">
         <is>
           <t>voto_anterior</t>
         </is>
